--- a/biology/Zoologie/Himantura_polylepis/Himantura_polylepis.xlsx
+++ b/biology/Zoologie/Himantura_polylepis/Himantura_polylepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himantura polylepis est une espèce de poissons cartilagineux appartenant à la famille des Dasyatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Himantura polylepis est de 240 cm pour un poids de 600 kg[3]. Le plus gros poisson pêché en eau douce (au Cambodge, dans le Mékong) est une Himantura polylepis de 300 kg[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Himantura polylepis est de 240 cm pour un poids de 600 kg. Le plus gros poisson pêché en eau douce (au Cambodge, dans le Mékong) est une Himantura polylepis de 300 kg,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, polylepis, du grec poly, plusieurs, et lepis, écailles, lui a été donné en référence à ses nombreuses écailles sur sa queue, bien que plus petites, que ce que Bleeker avait rencontré chez la plupart des espèces similaires[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, polylepis, du grec poly, plusieurs, et lepis, écailles, lui a été donné en référence à ses nombreuses écailles sur sa queue, bien que plus petites, que ce que Bleeker avait rencontré chez la plupart des espèces similaires.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(de) Bleeker, 1852 : Bijdrage tot de kennis der Plagiostomen van den Indischen Archipel. Verhandelingen van het Bataviaasch Genootschap van Kunsten en Wetenschappen, vol. 24, p. 1-92[7] (texte intégral).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(de) Bleeker, 1852 : Bijdrage tot de kennis der Plagiostomen van den Indischen Archipel. Verhandelingen van het Bataviaasch Genootschap van Kunsten en Wetenschappen, vol. 24, p. 1-92 (texte intégral).</t>
         </is>
       </c>
     </row>
